--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
